--- a/Hardware/BOM/MBLv1(both).xlsx
+++ b/Hardware/BOM/MBLv1(both).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="0" windowWidth="26535" windowHeight="15225"/>
+    <workbookView xWindow="9060" yWindow="0" windowWidth="26535" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="MBLv1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Микросхема SO8</t>
   </si>
   <si>
-    <t>STM32L052C6T</t>
-  </si>
-  <si>
     <t>Микросхема LQFP48</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Светодиод SMD</t>
+  </si>
+  <si>
+    <t>STM32L052C8T</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,260 +633,260 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
@@ -897,24 +897,24 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3">
         <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
